--- a/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/WorkSpace/unity/_project/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C56239-A8FF-48A9-B7A2-F34403B5053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70624C0F-6E5D-8248-A40B-08C47BACBA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4610" yWindow="1480" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -89,559 +89,268 @@
     <t>技能等级配置(攻击力，移动范围，杀伤范围，加内力，杀伤内力)</t>
   </si>
   <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
-    <t>野球拳</t>
-  </si>
-  <si>
     <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|2000,4,0,0,0</t>
   </si>
   <si>
-    <t>武当长拳</t>
-  </si>
-  <si>
     <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
   </si>
   <si>
-    <t>罗汉拳</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>灵蛇拳</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|25,2,0,0,0|30,3,0,0,0|40,4,0,0,0|50,4,0,0,0|55,4,0,0,0|60,4,0,0,0|65,4,0,0,0|70,4,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
-    <t>神王毒掌</t>
-  </si>
-  <si>
     <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
-    <t>七伤拳</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|140,3,0,0,0|160,3,1,0,0|200,3,1,0,0|400,4,2,0,0</t>
   </si>
   <si>
-    <t>混元掌</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
-    <t>寒冰绵掌</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,3,0,0,0|120,3,0,0,0|130,3,0,0,0|250,4,0,0,0</t>
   </si>
   <si>
-    <t>鹰爪功</t>
-  </si>
-  <si>
     <t>35,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,1,0,0|90,2,1,0,0|105,2,1,0,0|120,3,1,0,0|135,3,1,0,0|150,3,1,0,0|300,4,2,0,0</t>
   </si>
   <si>
-    <t>逍遥掌</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
-    <t>铁掌</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
-    <t>幻阴指</t>
-  </si>
-  <si>
     <t>30,2,0,0,0|60,2,0,0,0|90,3,0,0,0|120,3,0,0,0|150,4,0,0,0|260,4,0,0,0|370,5,0,0,0|480,5,0,0,0|590,6,0,0,0|660,6,0,0,0</t>
   </si>
   <si>
-    <t>寒冰神掌</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|200,3,1,0,0|250,4,2,0,0|300,4,2,0,0|400,5,2,0,0|550,5,3,0,0</t>
   </si>
   <si>
-    <t>千手如来掌</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,1,0,0|100,2,1,0,0|130,3,1,0,0|160,3,2,0,0|190,3,2,0,0|220,4,2,0,0|450,4,3,0,0</t>
   </si>
   <si>
-    <t>天山六阳掌</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,3,0,0,0|240,3,0,0,0|270,3,0,0,0|400,4,0,0,0</t>
   </si>
   <si>
-    <t>玄冥神掌</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,0,0,0|240,4,0,0,0|270,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
-    <t>冰蚕毒掌</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
-    <t>龙象般若功</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|70,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|180,3,1,0,0|220,4,1,0,0|260,4,2,0,0|300,5,2,0,0|480,5,2,0,0</t>
   </si>
   <si>
-    <t>一阳指</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,5,0,0,0|360,6,0,0,0|500,7,0,0,0</t>
   </si>
   <si>
-    <t>太极拳</t>
-  </si>
-  <si>
     <t>150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,2,0,0,0|350,2,0,0,0|400,2,0,0,0|450,3,0,0,0|500,3,0,0,0|550,3,0,0,0|660,4,0,0,0</t>
   </si>
   <si>
-    <t>空明拳</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,4,0,0,0|300,4,0,0,0|400,4,0,0,0|700,5,0,0,0</t>
   </si>
   <si>
-    <t>蛤蟆功</t>
-  </si>
-  <si>
     <t>150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,4,0,0,0|500,4,0,0,0|550,5,0,0,0|770,5,0,0,0</t>
   </si>
   <si>
-    <t>太玄神功</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
-    <t>黯然销魂掌</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
   </si>
   <si>
-    <t>降龙十八掌</t>
-  </si>
-  <si>
     <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
   </si>
   <si>
-    <t>葵花神功</t>
-  </si>
-  <si>
     <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
-    <t>化功大法</t>
-  </si>
-  <si>
     <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
   </si>
   <si>
-    <t>吸星大法</t>
-  </si>
-  <si>
     <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
   </si>
   <si>
-    <t>北冥神功</t>
-  </si>
-  <si>
     <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
   </si>
   <si>
-    <t>六脉神剑</t>
-  </si>
-  <si>
     <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
   </si>
   <si>
-    <t>躺尸剑法</t>
-  </si>
-  <si>
     <t>10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|24,1,0,0,0|28,1,0,0,0|31,1,0,0,0|33,1,0,0,0|35,1,0,0,0|37,1,0,0,0|800,1,0,0,0</t>
   </si>
   <si>
-    <t>青城剑法</t>
-  </si>
-  <si>
     <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|34,1,0,0,0|38,1,0,0,0|42,1,0,0,0|45,1,0,0,0|48,1,0,0,0|81,1,0,0,0</t>
   </si>
   <si>
-    <t>冰雪剑法</t>
-  </si>
-  <si>
-    <t>恒山剑法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|26,1,0,0,0|32,1,0,0,0|37,1,0,0,0|42,1,0,0,0|46,2,0,0,0|50,2,0,0,0|53,2,0,0,0|56,2,0,0,0|98,3,0,0,0</t>
   </si>
   <si>
-    <t>泰山剑法</t>
-  </si>
-  <si>
-    <t>衡山剑法</t>
-  </si>
-  <si>
-    <t>华山剑法</t>
-  </si>
-  <si>
     <t>21,1,0,0,0|28,1,0,0,0|35,1,0,0,0|42,1,0,0,0|48,1,0,0,0|54,2,0,0,0|59,2,0,0,0|64,2,0,0,0|68,2,0,0,0|100,3,0,0,0</t>
   </si>
   <si>
-    <t>嵩山剑法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|150,3,0,0,0</t>
   </si>
   <si>
-    <t>全真剑法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
-    <t>峨嵋剑法</t>
-  </si>
-  <si>
     <t>25,1,0,0,0|35,1,0,0,0|44,1,0,0,0|52,1,0,0,0|59,1,0,0,0|65,2,0,0,0|70,2,0,0,0|74,2,0,0,0|77,2,0,0,0|130,3,0,0,0</t>
   </si>
   <si>
-    <t>武当剑法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0</t>
   </si>
   <si>
-    <t>万花剑法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>泼墨剑法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>雪山剑法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|50,1,0,0,0|70,1,0,0,0|90,1,0,0,0|100,1,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|130,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
-    <t>泰山十八盘</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
   </si>
   <si>
-    <t>回峰落雁剑</t>
-  </si>
-  <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
   </si>
   <si>
-    <t>两仪剑法</t>
-  </si>
-  <si>
     <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>太岳三青峰</t>
-  </si>
-  <si>
     <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
   </si>
   <si>
-    <t>玉女素心剑</t>
-  </si>
-  <si>
     <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
   </si>
   <si>
-    <t>逍遥剑法</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|80,1,0,0,0|110,1,0,0,0|130,1,0,0,0|150,1,0,0,0|160,1,0,0,0|170,1,0,0,0|180,1,0,0,0|190,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>慕容剑法</t>
-  </si>
-  <si>
     <t>20,2,0,0,0|40,2,0,0,0|60,3,0,0,0|80,3,0,0,0|100,3,0,0,0|120,4,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|350,5,0,0,0</t>
   </si>
   <si>
-    <t>倚天剑法</t>
-  </si>
-  <si>
     <t>25,1,0,0,0|50,1,0,0,0|75,1,0,0,0|100,3,1,0,0|125,3,1,0,0|150,3,1,0,0|175,5,2,0,0|200,5,2,0,0|225,5,2,0,0|400,7,3,0,0</t>
   </si>
   <si>
-    <t>七星剑法</t>
-  </si>
-  <si>
     <t>70,2,0,0,0|95,2,0,0,0|115,2,0,0,0|135,3,0,0,0|155,3,0,0,0|180,3,0,0,0|210,3,0,0,0|240,3,0,0,0|270,4,0,0,0|450,4,0,0,0</t>
   </si>
   <si>
-    <t>金蛇剑法</t>
-  </si>
-  <si>
     <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
   </si>
   <si>
-    <t>苗家剑法</t>
-  </si>
-  <si>
     <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
   </si>
   <si>
-    <t>玉箫剑法</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
-    <t>玄铁剑法</t>
-  </si>
-  <si>
     <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
   </si>
   <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,2,0,0,0|400,3,0,0,0|450,3,0,0,0|650,3,0,0,0</t>
   </si>
   <si>
-    <t>达摩剑法</t>
-  </si>
-  <si>
     <t>50,2,0,0,0|100,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0|350,4,0,0,0|400,4,0,0,0|450,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
-    <t>辟邪剑法</t>
-  </si>
-  <si>
     <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
   </si>
   <si>
-    <t>独孤九剑</t>
-  </si>
-  <si>
     <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
   </si>
   <si>
-    <t>西瓜刀法</t>
-  </si>
-  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|35,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|740,1,0,0,0</t>
   </si>
   <si>
-    <t>血刀大法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
   </si>
   <si>
-    <t>狂风刀法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>反两仪刀法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>火焰刀法</t>
-  </si>
-  <si>
     <t>40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,4,0,0,0|180,4,0,0,0|200,4,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
-    <t>胡家刀法</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
   </si>
   <si>
-    <t>霹雳刀法</t>
-  </si>
-  <si>
     <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
   </si>
   <si>
-    <t>神龙双勾</t>
-  </si>
-  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
   </si>
   <si>
-    <t>大轮杖法</t>
-  </si>
-  <si>
-    <t>怪异武器</t>
-  </si>
-  <si>
-    <t>炼心弹</t>
-  </si>
-  <si>
     <t>5,2,0,0,0|10,2,0,0,0|15,2,0,0,0|20,3,0,0,0|25,3,0,0,0|30,3,0,0,0|35,3,0,0,0|40,4,0,0,0|45,4,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
-    <t>叫化棍法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|200,1,0,0,0</t>
   </si>
   <si>
-    <t>火焰发射器</t>
-  </si>
-  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
-    <t>鳄鱼</t>
-  </si>
-  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
-    <t>大蜘珠</t>
-  </si>
-  <si>
     <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
-    <t>毒龙鞭法</t>
-  </si>
-  <si>
     <t>30,2,0,0,0|40,2,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
-    <t>黄沙万里鞭</t>
-  </si>
-  <si>
     <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
-    <t>雪怪</t>
-  </si>
-  <si>
     <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
   </si>
   <si>
-    <t>判官笔</t>
-  </si>
-  <si>
     <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
   </si>
   <si>
-    <t>持棋盘</t>
-  </si>
-  <si>
     <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
   </si>
   <si>
-    <t>大剪刀</t>
-  </si>
-  <si>
     <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
   </si>
   <si>
-    <t>持瑶琴</t>
-  </si>
-  <si>
     <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
   </si>
   <si>
-    <t>大蟒蛇</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
   </si>
   <si>
-    <t>金花杖法</t>
-  </si>
-  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>神龙鹿杖</t>
-  </si>
-  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,1,0,0|240,4,1,0,0|270,5,1,0,0|450,5,1,0,0</t>
   </si>
   <si>
-    <t>打狗棍法</t>
-  </si>
-  <si>
     <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
   </si>
   <si>
-    <t>五轮大法</t>
-  </si>
-  <si>
     <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
   </si>
   <si>
-    <t>松风剑法</t>
-  </si>
-  <si>
     <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
   </si>
   <si>
     <t>1,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|50,1,0,0,0|90,1,0,0,0|120,1,0,0,0|200,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>狮子吼</t>
-  </si>
-  <si>
     <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
   </si>
   <si>
-    <t>九阳神功</t>
-  </si>
-  <si>
     <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
-    <t>用毒</t>
-  </si>
-  <si>
-    <t>解毒</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-  </si>
-  <si>
-    <t>暗器</t>
   </si>
   <si>
     <t>Skill</t>
@@ -674,13 +383,301 @@
   <si>
     <t>攻击范围 点攻击 = 0, 线攻击 = 1, 十字攻击 = 2, 面攻击 = 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tấn công bình thường</t>
+  </si>
+  <si>
+    <t>đấm bốc bóng hoang dã</t>
+  </si>
+  <si>
+    <t>Võ Đang Trường Toàn</t>
+  </si>
+  <si>
+    <t>Quyền anh La Hán</t>
+  </si>
+  <si>
+    <t>Nắm đấm thần rắn</t>
+  </si>
+  <si>
+    <t>Cây cọ độc của Thần Vương</t>
+  </si>
+  <si>
+    <t>Bảy thương nắm đấm</t>
+  </si>
+  <si>
+    <t>Cọ Hồn Nguyên</t>
+  </si>
+  <si>
+    <t>Cọ băng</t>
+  </si>
+  <si>
+    <t>Kung Fu Vuốt Đại Bàng</t>
+  </si>
+  <si>
+    <t>Tiêu Dao Chương</t>
+  </si>
+  <si>
+    <t>Cọ sắt</t>
+  </si>
+  <si>
+    <t>Ngón tay ma âm</t>
+  </si>
+  <si>
+    <t>Bàn tay Như Lai ngàn tay</t>
+  </si>
+  <si>
+    <t>Cây cọ Thiên Sơn Lưu Dương</t>
+  </si>
+  <si>
+    <t>Huyền Minh Thần Chưởng</t>
+  </si>
+  <si>
+    <t>Cây độc tằm băng</t>
+  </si>
+  <si>
+    <t>Rồng Voi Bát nhã Kung Fu</t>
+  </si>
+  <si>
+    <t>Một ngón tay dương</t>
+  </si>
+  <si>
+    <t>tai Chi</t>
+  </si>
+  <si>
+    <t>nắm tay trống rỗng</t>
+  </si>
+  <si>
+    <t>Cóc Kung Fu</t>
+  </si>
+  <si>
+    <t>Thần lực Thái Huyền</t>
+  </si>
+  <si>
+    <t>Lòng bàn tay xuất thần</t>
+  </si>
+  <si>
+    <t>Mười tám chiêu hàng rồng</t>
+  </si>
+  <si>
+    <t>Phép thuật hướng dương</t>
+  </si>
+  <si>
+    <t>Hoa Công Đại Pháp</t>
+  </si>
+  <si>
+    <t>Phương pháp thu hút sao</t>
+  </si>
+  <si>
+    <t>Sức mạnh ma thuật Beiming</t>
+  </si>
+  <si>
+    <t>Lục Kinh Thần Kiếm</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm xác nằm</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm Thanh Thành</t>
+  </si>
+  <si>
+    <t>Kiếm thuật băng và tuyết</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm Heng Sơn</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Thái Sơn</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm Hengshan</t>
+  </si>
+  <si>
+    <t>Hoa Sơn Kiếm Kỹ</t>
+  </si>
+  <si>
+    <t>Song Sơn Kiếm Kỹ</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Tuyền Chân</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Nga Mi</t>
+  </si>
+  <si>
+    <t>kiếm thuật Võ Đang</t>
+  </si>
+  <si>
+    <t>Vạn Hoa Kiếm Kỹ</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm mực bắn tung tóe</t>
+  </si>
+  <si>
+    <t>Kiếm thuật núi tuyết</t>
+  </si>
+  <si>
+    <t>Mười tám món Thái Sơn</t>
+  </si>
+  <si>
+    <t>Thanh kiếm Huifeng Luoyan</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Liangyi</t>
+  </si>
+  <si>
+    <t>Thái Nhạc Tam Thanh Phong</t>
+  </si>
+  <si>
+    <t>Ngọc Nữ Su Xin Kiếm</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm của Xiaoyao</t>
+  </si>
+  <si>
+    <t>Kiếm thuật của Mộ Dung</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm Yitian</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm bảy sao</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm rắn vàng</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Miêu</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm sáo ngọc</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm sắt đen</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Thái cực quyền</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Bồ Đề Đạt Ma</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm chống ác</t>
+  </si>
+  <si>
+    <t>Độc Cô Cửu Kiếm</t>
+  </si>
+  <si>
+    <t>kỹ thuật dùng dao cắt dưa hấu</t>
+  </si>
+  <si>
+    <t>Huyết Đao Đại Pháp</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm gió mạnh</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm chống Liangyi</t>
+  </si>
+  <si>
+    <t>Kỹ thuật dùng dao lửa</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm của gia đình Hu</t>
+  </si>
+  <si>
+    <t>Kỹ thuật dùng dao sấm sét</t>
+  </si>
+  <si>
+    <t>Móc đôi Shenlong</t>
+  </si>
+  <si>
+    <t>Kỹ thuật Bánh xe và Cây gậy vĩ đại</t>
+  </si>
+  <si>
+    <t>vũ khí kỳ lạ</t>
+  </si>
+  <si>
+    <t>Bom tim</t>
+  </si>
+  <si>
+    <t>phương pháp ăn xin</t>
+  </si>
+  <si>
+    <t>súng phóng lửa</t>
+  </si>
+  <si>
+    <t>Cá sấu</t>
+  </si>
+  <si>
+    <t>hạt nhện lớn</t>
+  </si>
+  <si>
+    <t>Kỹ thuật roi rồng độc</t>
+  </si>
+  <si>
+    <t>Hoàng Sa ngàn dặm roi</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>bút thẩm phán</t>
+  </si>
+  <si>
+    <t>Cầm bàn cờ</t>
+  </si>
+  <si>
+    <t>kéo lớn</t>
+  </si>
+  <si>
+    <t>Giữ Yao Qin</t>
+  </si>
+  <si>
+    <t>Trăn lớn</t>
+  </si>
+  <si>
+    <t>Trượng Hoa Vàng</t>
+  </si>
+  <si>
+    <t>Gậy Rồng Hươu</t>
+  </si>
+  <si>
+    <t>phương pháp đánh chó bằng gậy</t>
+  </si>
+  <si>
+    <t>Năm vòng Đại Pháp</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Matsukaze</t>
+  </si>
+  <si>
+    <t>sư tử gầm</t>
+  </si>
+  <si>
+    <t>Phép thuật Cửu Dương</t>
+  </si>
+  <si>
+    <t>Dùng chất độc</t>
+  </si>
+  <si>
+    <t>Giải độc</t>
+  </si>
+  <si>
+    <t>thuộc về y học</t>
+  </si>
+  <si>
+    <t>Ngao đỏ Manggu</t>
+  </si>
+  <si>
+    <t>vũ khí ẩn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -703,6 +700,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -812,7 +810,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
@@ -1162,26 +1160,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,10 +1188,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -1204,30 +1203,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1247,15 +1246,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1270,15 +1269,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1293,15 +1292,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1316,15 +1315,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1339,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1362,15 +1361,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1385,15 +1384,15 @@
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1408,15 +1407,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1431,15 +1430,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1454,15 +1453,15 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1477,15 +1476,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1500,15 +1499,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1523,15 +1522,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1546,15 +1545,15 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1569,15 +1568,15 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1592,15 +1591,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1615,15 +1614,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1638,15 +1637,15 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1661,15 +1660,15 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1684,15 +1683,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1707,15 +1706,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1730,15 +1729,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1753,15 +1752,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1776,15 +1775,15 @@
         <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1799,15 +1798,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1822,15 +1821,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1845,15 +1844,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1868,15 +1867,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1891,15 +1890,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1914,15 +1913,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1937,15 +1936,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1960,15 +1959,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1983,15 +1982,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -2006,15 +2005,15 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -2029,15 +2028,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2052,15 +2051,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -2075,15 +2074,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2098,15 +2097,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2121,15 +2120,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2144,15 +2143,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2167,15 +2166,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2190,15 +2189,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2213,15 +2212,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2236,15 +2235,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2259,15 +2258,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2282,15 +2281,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2305,15 +2304,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2328,15 +2327,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2351,15 +2350,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2374,15 +2373,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2397,15 +2396,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2420,15 +2419,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2443,15 +2442,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2466,15 +2465,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2489,15 +2488,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2512,15 +2511,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2535,15 +2534,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2558,15 +2557,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -2581,15 +2580,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2604,15 +2603,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -2627,15 +2626,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -2650,15 +2649,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -2673,15 +2672,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -2696,15 +2695,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>63</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -2719,15 +2718,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -2742,15 +2741,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -2765,15 +2764,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -2788,15 +2787,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -2811,15 +2810,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -2834,15 +2833,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -2857,15 +2856,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -2880,15 +2879,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -2903,15 +2902,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -2926,15 +2925,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -2949,15 +2948,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -2972,15 +2971,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -2995,15 +2994,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3018,15 +3017,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3041,15 +3040,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3064,15 +3063,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3087,15 +3086,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3110,15 +3109,15 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3133,15 +3132,15 @@
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -3156,15 +3155,15 @@
         <v>0</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -3179,15 +3178,15 @@
         <v>0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -3202,15 +3201,15 @@
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -3225,15 +3224,15 @@
         <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -3248,15 +3247,15 @@
         <v>0</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -3271,15 +3270,15 @@
         <v>0</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -3294,15 +3293,15 @@
         <v>0</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -3317,15 +3316,15 @@
         <v>0</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -3340,15 +3339,15 @@
         <v>0</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -3363,15 +3362,15 @@
         <v>0</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -3386,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1">
       <c r="A98" s="3">
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
@@ -3409,15 +3408,15 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1">
       <c r="A99" s="3">
         <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
@@ -3432,15 +3431,15 @@
         <v>0</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1">
       <c r="A100" s="3">
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C100" s="3">
         <v>4</v>
@@ -3455,15 +3454,15 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16">
       <c r="A101" s="2">
         <v>96</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -3478,15 +3477,15 @@
         <v>0</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1">
       <c r="A102" s="3">
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C102" s="3">
         <v>5</v>
@@ -3501,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3513,7 +3512,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3522,7 +3521,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3531,7 +3530,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3540,7 +3539,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3549,7 +3548,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3558,7 +3557,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3567,7 +3566,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3576,7 +3575,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3585,7 +3584,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3594,7 +3593,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3603,7 +3602,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3612,7 +3611,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3621,7 +3620,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3630,7 +3629,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3639,7 +3638,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3648,7 +3647,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3657,7 +3656,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3666,7 +3665,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3675,7 +3674,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3684,7 +3683,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3693,7 +3692,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3702,7 +3701,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3711,7 +3710,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3720,7 +3719,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3729,7 +3728,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3738,7 +3737,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3747,7 +3746,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3756,7 +3755,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3765,7 +3764,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3774,7 +3773,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3783,7 +3782,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3792,7 +3791,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3801,7 +3800,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3810,7 +3809,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3819,7 +3818,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3828,7 +3827,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3837,7 +3836,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3846,7 +3845,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3855,7 +3854,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3864,7 +3863,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3873,7 +3872,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3882,7 +3881,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3891,7 +3890,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3900,7 +3899,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3909,7 +3908,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3918,7 +3917,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3927,7 +3926,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3936,7 +3935,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3945,7 +3944,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3954,7 +3953,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3963,7 +3962,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3972,7 +3971,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3981,7 +3980,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3990,7 +3989,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3999,7 +3998,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4008,7 +4007,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4017,7 +4016,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4026,7 +4025,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4035,7 +4034,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4044,7 +4043,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4053,7 +4052,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4062,7 +4061,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4071,7 +4070,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4080,7 +4079,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4089,7 +4088,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4098,7 +4097,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4107,7 +4106,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4116,7 +4115,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4125,7 +4124,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4134,7 +4133,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4143,7 +4142,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4152,7 +4151,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4161,7 +4160,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4170,7 +4169,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4179,7 +4178,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4188,7 +4187,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4197,7 +4196,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4206,7 +4205,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4215,7 +4214,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4224,7 +4223,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4233,7 +4232,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4242,7 +4241,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4251,7 +4250,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4260,7 +4259,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4269,7 +4268,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4278,7 +4277,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4287,7 +4286,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4296,7 +4295,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4305,7 +4304,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4314,7 +4313,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4323,7 +4322,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4332,7 +4331,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4341,7 +4340,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4350,7 +4349,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4359,7 +4358,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4368,7 +4367,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4377,7 +4376,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4386,7 +4385,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4395,7 +4394,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4404,7 +4403,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4413,7 +4412,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/WorkSpace/unity/_project/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70624C0F-6E5D-8248-A40B-08C47BACBA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C56239-A8FF-48A9-B7A2-F34403B5053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4610" yWindow="1480" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="204">
   <si>
     <r>
       <rPr>
@@ -89,268 +89,559 @@
     <t>技能等级配置(攻击力，移动范围，杀伤范围，加内力，杀伤内力)</t>
   </si>
   <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
+    <t>野球拳</t>
+  </si>
+  <si>
     <t>3,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|2000,4,0,0,0</t>
   </si>
   <si>
+    <t>武当长拳</t>
+  </si>
+  <si>
     <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
   </si>
   <si>
+    <t>罗汉拳</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>灵蛇拳</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|25,2,0,0,0|30,3,0,0,0|40,4,0,0,0|50,4,0,0,0|55,4,0,0,0|60,4,0,0,0|65,4,0,0,0|70,4,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
+    <t>神王毒掌</t>
+  </si>
+  <si>
     <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
+    <t>七伤拳</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|140,3,0,0,0|160,3,1,0,0|200,3,1,0,0|400,4,2,0,0</t>
   </si>
   <si>
+    <t>混元掌</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
+    <t>寒冰绵掌</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,3,0,0,0|120,3,0,0,0|130,3,0,0,0|250,4,0,0,0</t>
   </si>
   <si>
+    <t>鹰爪功</t>
+  </si>
+  <si>
     <t>35,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,1,0,0|90,2,1,0,0|105,2,1,0,0|120,3,1,0,0|135,3,1,0,0|150,3,1,0,0|300,4,2,0,0</t>
   </si>
   <si>
+    <t>逍遥掌</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
+    <t>铁掌</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
+    <t>幻阴指</t>
+  </si>
+  <si>
     <t>30,2,0,0,0|60,2,0,0,0|90,3,0,0,0|120,3,0,0,0|150,4,0,0,0|260,4,0,0,0|370,5,0,0,0|480,5,0,0,0|590,6,0,0,0|660,6,0,0,0</t>
   </si>
   <si>
+    <t>寒冰神掌</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|200,3,1,0,0|250,4,2,0,0|300,4,2,0,0|400,5,2,0,0|550,5,3,0,0</t>
   </si>
   <si>
+    <t>千手如来掌</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,2,0,0,0|80,2,1,0,0|100,2,1,0,0|130,3,1,0,0|160,3,2,0,0|190,3,2,0,0|220,4,2,0,0|450,4,3,0,0</t>
   </si>
   <si>
+    <t>天山六阳掌</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,3,0,0,0|240,3,0,0,0|270,3,0,0,0|400,4,0,0,0</t>
   </si>
   <si>
+    <t>玄冥神掌</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,0,0,0|240,4,0,0,0|270,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
+    <t>冰蚕毒掌</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
   </si>
   <si>
+    <t>龙象般若功</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|70,1,0,0,0|90,2,0,0,0|120,2,1,0,0|150,3,1,0,0|180,3,1,0,0|220,4,1,0,0|260,4,2,0,0|300,5,2,0,0|480,5,2,0,0</t>
   </si>
   <si>
+    <t>一阳指</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,5,0,0,0|360,6,0,0,0|500,7,0,0,0</t>
   </si>
   <si>
+    <t>太极拳</t>
+  </si>
+  <si>
     <t>150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,2,0,0,0|350,2,0,0,0|400,2,0,0,0|450,3,0,0,0|500,3,0,0,0|550,3,0,0,0|660,4,0,0,0</t>
   </si>
   <si>
+    <t>空明拳</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,4,0,0,0|300,4,0,0,0|400,4,0,0,0|700,5,0,0,0</t>
   </si>
   <si>
+    <t>蛤蟆功</t>
+  </si>
+  <si>
     <t>150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,4,0,0,0|500,4,0,0,0|550,5,0,0,0|770,5,0,0,0</t>
   </si>
   <si>
+    <t>太玄神功</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
+    <t>黯然销魂掌</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
   </si>
   <si>
+    <t>降龙十八掌</t>
+  </si>
+  <si>
     <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
   </si>
   <si>
+    <t>葵花神功</t>
+  </si>
+  <si>
     <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
+    <t>化功大法</t>
+  </si>
+  <si>
     <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
   </si>
   <si>
+    <t>吸星大法</t>
+  </si>
+  <si>
     <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
   </si>
   <si>
+    <t>北冥神功</t>
+  </si>
+  <si>
     <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
   </si>
   <si>
+    <t>六脉神剑</t>
+  </si>
+  <si>
     <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
   </si>
   <si>
+    <t>躺尸剑法</t>
+  </si>
+  <si>
     <t>10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|24,1,0,0,0|28,1,0,0,0|31,1,0,0,0|33,1,0,0,0|35,1,0,0,0|37,1,0,0,0|800,1,0,0,0</t>
   </si>
   <si>
+    <t>青城剑法</t>
+  </si>
+  <si>
     <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|34,1,0,0,0|38,1,0,0,0|42,1,0,0,0|45,1,0,0,0|48,1,0,0,0|81,1,0,0,0</t>
   </si>
   <si>
+    <t>冰雪剑法</t>
+  </si>
+  <si>
+    <t>恒山剑法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|26,1,0,0,0|32,1,0,0,0|37,1,0,0,0|42,1,0,0,0|46,2,0,0,0|50,2,0,0,0|53,2,0,0,0|56,2,0,0,0|98,3,0,0,0</t>
   </si>
   <si>
+    <t>泰山剑法</t>
+  </si>
+  <si>
+    <t>衡山剑法</t>
+  </si>
+  <si>
+    <t>华山剑法</t>
+  </si>
+  <si>
     <t>21,1,0,0,0|28,1,0,0,0|35,1,0,0,0|42,1,0,0,0|48,1,0,0,0|54,2,0,0,0|59,2,0,0,0|64,2,0,0,0|68,2,0,0,0|100,3,0,0,0</t>
   </si>
   <si>
+    <t>嵩山剑法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|150,3,0,0,0</t>
   </si>
   <si>
+    <t>全真剑法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|200,4,0,0,0</t>
   </si>
   <si>
+    <t>峨嵋剑法</t>
+  </si>
+  <si>
     <t>25,1,0,0,0|35,1,0,0,0|44,1,0,0,0|52,1,0,0,0|59,1,0,0,0|65,2,0,0,0|70,2,0,0,0|74,2,0,0,0|77,2,0,0,0|130,3,0,0,0</t>
   </si>
   <si>
+    <t>武当剑法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0</t>
   </si>
   <si>
+    <t>万花剑法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>泼墨剑法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>雪山剑法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|50,1,0,0,0|70,1,0,0,0|90,1,0,0,0|100,1,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|130,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
+    <t>泰山十八盘</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
   </si>
   <si>
+    <t>回峰落雁剑</t>
+  </si>
+  <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
   </si>
   <si>
+    <t>两仪剑法</t>
+  </si>
+  <si>
     <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>太岳三青峰</t>
+  </si>
+  <si>
     <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
   </si>
   <si>
+    <t>玉女素心剑</t>
+  </si>
+  <si>
     <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
   </si>
   <si>
+    <t>逍遥剑法</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|80,1,0,0,0|110,1,0,0,0|130,1,0,0,0|150,1,0,0,0|160,1,0,0,0|170,1,0,0,0|180,1,0,0,0|190,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>慕容剑法</t>
+  </si>
+  <si>
     <t>20,2,0,0,0|40,2,0,0,0|60,3,0,0,0|80,3,0,0,0|100,3,0,0,0|120,4,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|350,5,0,0,0</t>
   </si>
   <si>
+    <t>倚天剑法</t>
+  </si>
+  <si>
     <t>25,1,0,0,0|50,1,0,0,0|75,1,0,0,0|100,3,1,0,0|125,3,1,0,0|150,3,1,0,0|175,5,2,0,0|200,5,2,0,0|225,5,2,0,0|400,7,3,0,0</t>
   </si>
   <si>
+    <t>七星剑法</t>
+  </si>
+  <si>
     <t>70,2,0,0,0|95,2,0,0,0|115,2,0,0,0|135,3,0,0,0|155,3,0,0,0|180,3,0,0,0|210,3,0,0,0|240,3,0,0,0|270,4,0,0,0|450,4,0,0,0</t>
   </si>
   <si>
+    <t>金蛇剑法</t>
+  </si>
+  <si>
     <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
   </si>
   <si>
+    <t>苗家剑法</t>
+  </si>
+  <si>
     <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
   </si>
   <si>
+    <t>玉箫剑法</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
+    <t>玄铁剑法</t>
+  </si>
+  <si>
     <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
   </si>
   <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,2,0,0,0|400,3,0,0,0|450,3,0,0,0|650,3,0,0,0</t>
   </si>
   <si>
+    <t>达摩剑法</t>
+  </si>
+  <si>
     <t>50,2,0,0,0|100,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0|350,4,0,0,0|400,4,0,0,0|450,5,0,0,0|600,5,0,0,0</t>
   </si>
   <si>
+    <t>辟邪剑法</t>
+  </si>
+  <si>
     <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
   </si>
   <si>
+    <t>独孤九剑</t>
+  </si>
+  <si>
     <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
   </si>
   <si>
+    <t>西瓜刀法</t>
+  </si>
+  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|35,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|740,1,0,0,0</t>
   </si>
   <si>
+    <t>血刀大法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
   </si>
   <si>
+    <t>狂风刀法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>反两仪刀法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>火焰刀法</t>
+  </si>
+  <si>
     <t>40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,4,0,0,0|180,4,0,0,0|200,4,0,0,0|300,5,0,0,0</t>
   </si>
   <si>
+    <t>胡家刀法</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
   </si>
   <si>
+    <t>霹雳刀法</t>
+  </si>
+  <si>
     <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
   </si>
   <si>
+    <t>神龙双勾</t>
+  </si>
+  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
   </si>
   <si>
+    <t>大轮杖法</t>
+  </si>
+  <si>
+    <t>怪异武器</t>
+  </si>
+  <si>
+    <t>炼心弹</t>
+  </si>
+  <si>
     <t>5,2,0,0,0|10,2,0,0,0|15,2,0,0,0|20,3,0,0,0|25,3,0,0,0|30,3,0,0,0|35,3,0,0,0|40,4,0,0,0|45,4,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
+    <t>叫化棍法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|200,1,0,0,0</t>
   </si>
   <si>
+    <t>火焰发射器</t>
+  </si>
+  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
+    <t>鳄鱼</t>
+  </si>
+  <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
+    <t>大蜘珠</t>
+  </si>
+  <si>
     <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
+    <t>毒龙鞭法</t>
+  </si>
+  <si>
     <t>30,2,0,0,0|40,2,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|200,3,0,0,0</t>
   </si>
   <si>
+    <t>黄沙万里鞭</t>
+  </si>
+  <si>
     <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
   </si>
   <si>
+    <t>雪怪</t>
+  </si>
+  <si>
     <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
   </si>
   <si>
+    <t>判官笔</t>
+  </si>
+  <si>
     <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
   </si>
   <si>
+    <t>持棋盘</t>
+  </si>
+  <si>
     <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
   </si>
   <si>
+    <t>大剪刀</t>
+  </si>
+  <si>
     <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
   </si>
   <si>
+    <t>持瑶琴</t>
+  </si>
+  <si>
     <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
   </si>
   <si>
+    <t>大蟒蛇</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
   </si>
   <si>
+    <t>金花杖法</t>
+  </si>
+  <si>
     <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>神龙鹿杖</t>
+  </si>
+  <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,1,0,0|240,4,1,0,0|270,5,1,0,0|450,5,1,0,0</t>
   </si>
   <si>
+    <t>打狗棍法</t>
+  </si>
+  <si>
     <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
   </si>
   <si>
+    <t>五轮大法</t>
+  </si>
+  <si>
     <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
   </si>
   <si>
+    <t>松风剑法</t>
+  </si>
+  <si>
     <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
   </si>
   <si>
     <t>1,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|50,1,0,0,0|90,1,0,0,0|120,1,0,0,0|200,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>狮子吼</t>
+  </si>
+  <si>
     <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
   </si>
   <si>
+    <t>九阳神功</t>
+  </si>
+  <si>
     <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
+    <t>用毒</t>
+  </si>
+  <si>
+    <t>解毒</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>莽牯朱蛤</t>
+  </si>
+  <si>
+    <t>暗器</t>
   </si>
   <si>
     <t>Skill</t>
@@ -383,301 +674,13 @@
   <si>
     <t>攻击范围 点攻击 = 0, 线攻击 = 1, 十字攻击 = 2, 面攻击 = 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tấn công bình thường</t>
-  </si>
-  <si>
-    <t>đấm bốc bóng hoang dã</t>
-  </si>
-  <si>
-    <t>Võ Đang Trường Toàn</t>
-  </si>
-  <si>
-    <t>Quyền anh La Hán</t>
-  </si>
-  <si>
-    <t>Nắm đấm thần rắn</t>
-  </si>
-  <si>
-    <t>Cây cọ độc của Thần Vương</t>
-  </si>
-  <si>
-    <t>Bảy thương nắm đấm</t>
-  </si>
-  <si>
-    <t>Cọ Hồn Nguyên</t>
-  </si>
-  <si>
-    <t>Cọ băng</t>
-  </si>
-  <si>
-    <t>Kung Fu Vuốt Đại Bàng</t>
-  </si>
-  <si>
-    <t>Tiêu Dao Chương</t>
-  </si>
-  <si>
-    <t>Cọ sắt</t>
-  </si>
-  <si>
-    <t>Ngón tay ma âm</t>
-  </si>
-  <si>
-    <t>Bàn tay Như Lai ngàn tay</t>
-  </si>
-  <si>
-    <t>Cây cọ Thiên Sơn Lưu Dương</t>
-  </si>
-  <si>
-    <t>Huyền Minh Thần Chưởng</t>
-  </si>
-  <si>
-    <t>Cây độc tằm băng</t>
-  </si>
-  <si>
-    <t>Rồng Voi Bát nhã Kung Fu</t>
-  </si>
-  <si>
-    <t>Một ngón tay dương</t>
-  </si>
-  <si>
-    <t>tai Chi</t>
-  </si>
-  <si>
-    <t>nắm tay trống rỗng</t>
-  </si>
-  <si>
-    <t>Cóc Kung Fu</t>
-  </si>
-  <si>
-    <t>Thần lực Thái Huyền</t>
-  </si>
-  <si>
-    <t>Lòng bàn tay xuất thần</t>
-  </si>
-  <si>
-    <t>Mười tám chiêu hàng rồng</t>
-  </si>
-  <si>
-    <t>Phép thuật hướng dương</t>
-  </si>
-  <si>
-    <t>Hoa Công Đại Pháp</t>
-  </si>
-  <si>
-    <t>Phương pháp thu hút sao</t>
-  </si>
-  <si>
-    <t>Sức mạnh ma thuật Beiming</t>
-  </si>
-  <si>
-    <t>Lục Kinh Thần Kiếm</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm xác nằm</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm Thanh Thành</t>
-  </si>
-  <si>
-    <t>Kiếm thuật băng và tuyết</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm Heng Sơn</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Thái Sơn</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm Hengshan</t>
-  </si>
-  <si>
-    <t>Hoa Sơn Kiếm Kỹ</t>
-  </si>
-  <si>
-    <t>Song Sơn Kiếm Kỹ</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Tuyền Chân</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Nga Mi</t>
-  </si>
-  <si>
-    <t>kiếm thuật Võ Đang</t>
-  </si>
-  <si>
-    <t>Vạn Hoa Kiếm Kỹ</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm mực bắn tung tóe</t>
-  </si>
-  <si>
-    <t>Kiếm thuật núi tuyết</t>
-  </si>
-  <si>
-    <t>Mười tám món Thái Sơn</t>
-  </si>
-  <si>
-    <t>Thanh kiếm Huifeng Luoyan</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Liangyi</t>
-  </si>
-  <si>
-    <t>Thái Nhạc Tam Thanh Phong</t>
-  </si>
-  <si>
-    <t>Ngọc Nữ Su Xin Kiếm</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm của Xiaoyao</t>
-  </si>
-  <si>
-    <t>Kiếm thuật của Mộ Dung</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm Yitian</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm bảy sao</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm rắn vàng</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Miêu</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm sáo ngọc</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm sắt đen</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Thái cực quyền</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Bồ Đề Đạt Ma</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm chống ác</t>
-  </si>
-  <si>
-    <t>Độc Cô Cửu Kiếm</t>
-  </si>
-  <si>
-    <t>kỹ thuật dùng dao cắt dưa hấu</t>
-  </si>
-  <si>
-    <t>Huyết Đao Đại Pháp</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm gió mạnh</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm chống Liangyi</t>
-  </si>
-  <si>
-    <t>Kỹ thuật dùng dao lửa</t>
-  </si>
-  <si>
-    <t>Kỹ thuật kiếm của gia đình Hu</t>
-  </si>
-  <si>
-    <t>Kỹ thuật dùng dao sấm sét</t>
-  </si>
-  <si>
-    <t>Móc đôi Shenlong</t>
-  </si>
-  <si>
-    <t>Kỹ thuật Bánh xe và Cây gậy vĩ đại</t>
-  </si>
-  <si>
-    <t>vũ khí kỳ lạ</t>
-  </si>
-  <si>
-    <t>Bom tim</t>
-  </si>
-  <si>
-    <t>phương pháp ăn xin</t>
-  </si>
-  <si>
-    <t>súng phóng lửa</t>
-  </si>
-  <si>
-    <t>Cá sấu</t>
-  </si>
-  <si>
-    <t>hạt nhện lớn</t>
-  </si>
-  <si>
-    <t>Kỹ thuật roi rồng độc</t>
-  </si>
-  <si>
-    <t>Hoàng Sa ngàn dặm roi</t>
-  </si>
-  <si>
-    <t>Yeti</t>
-  </si>
-  <si>
-    <t>bút thẩm phán</t>
-  </si>
-  <si>
-    <t>Cầm bàn cờ</t>
-  </si>
-  <si>
-    <t>kéo lớn</t>
-  </si>
-  <si>
-    <t>Giữ Yao Qin</t>
-  </si>
-  <si>
-    <t>Trăn lớn</t>
-  </si>
-  <si>
-    <t>Trượng Hoa Vàng</t>
-  </si>
-  <si>
-    <t>Gậy Rồng Hươu</t>
-  </si>
-  <si>
-    <t>phương pháp đánh chó bằng gậy</t>
-  </si>
-  <si>
-    <t>Năm vòng Đại Pháp</t>
-  </si>
-  <si>
-    <t>Kiếm thuật Matsukaze</t>
-  </si>
-  <si>
-    <t>sư tử gầm</t>
-  </si>
-  <si>
-    <t>Phép thuật Cửu Dương</t>
-  </si>
-  <si>
-    <t>Dùng chất độc</t>
-  </si>
-  <si>
-    <t>Giải độc</t>
-  </si>
-  <si>
-    <t>thuộc về y học</t>
-  </si>
-  <si>
-    <t>Ngao đỏ Manggu</t>
-  </si>
-  <si>
-    <t>vũ khí ẩn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,7 +703,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -810,7 +812,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
@@ -1160,27 +1162,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1188,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -1203,30 +1204,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1246,15 +1247,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1269,15 +1270,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1292,15 +1293,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1315,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1338,15 +1339,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1361,15 +1362,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1384,15 +1385,15 @@
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1407,15 +1408,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1430,15 +1431,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1453,15 +1454,15 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1476,15 +1477,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1499,15 +1500,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1522,15 +1523,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1545,15 +1546,15 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1568,15 +1569,15 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1591,15 +1592,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1614,15 +1615,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1637,15 +1638,15 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1660,15 +1661,15 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1683,15 +1684,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1706,15 +1707,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1729,15 +1730,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1752,15 +1753,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1775,15 +1776,15 @@
         <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1798,15 +1799,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1821,15 +1822,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1844,15 +1845,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1867,15 +1868,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1890,15 +1891,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1913,15 +1914,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1936,15 +1937,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1959,15 +1960,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1982,15 +1983,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -2005,15 +2006,15 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -2028,15 +2029,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2051,15 +2052,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -2074,15 +2075,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2097,15 +2098,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2120,15 +2121,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2143,15 +2144,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2166,15 +2167,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2189,15 +2190,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2212,15 +2213,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2235,15 +2236,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2258,15 +2259,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2281,15 +2282,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2304,15 +2305,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2327,15 +2328,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2350,15 +2351,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2373,15 +2374,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2396,15 +2397,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2419,15 +2420,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2442,15 +2443,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2465,15 +2466,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2488,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2511,15 +2512,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2534,15 +2535,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2557,15 +2558,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -2580,15 +2581,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2603,15 +2604,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -2626,15 +2627,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -2649,15 +2650,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -2672,15 +2673,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -2695,15 +2696,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -2718,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -2741,15 +2742,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -2764,15 +2765,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -2787,15 +2788,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -2810,15 +2811,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -2833,15 +2834,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -2856,15 +2857,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -2879,15 +2880,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -2902,15 +2903,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -2925,15 +2926,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -2948,15 +2949,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -2971,15 +2972,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -2994,15 +2995,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3017,15 +3018,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3040,15 +3041,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3063,15 +3064,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3086,15 +3087,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3109,15 +3110,15 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3132,15 +3133,15 @@
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -3155,15 +3156,15 @@
         <v>0</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -3178,15 +3179,15 @@
         <v>0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -3201,15 +3202,15 @@
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -3224,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -3247,15 +3248,15 @@
         <v>0</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -3270,15 +3271,15 @@
         <v>0</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -3293,15 +3294,15 @@
         <v>0</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -3316,15 +3317,15 @@
         <v>0</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -3339,15 +3340,15 @@
         <v>0</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -3362,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -3385,15 +3386,15 @@
         <v>0</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="1" customFormat="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
@@ -3408,15 +3409,15 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="1" customFormat="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
@@ -3431,15 +3432,15 @@
         <v>0</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="1" customFormat="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C100" s="3">
         <v>4</v>
@@ -3454,15 +3455,15 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>96</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -3477,15 +3478,15 @@
         <v>0</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="1" customFormat="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C102" s="3">
         <v>5</v>
@@ -3500,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3512,7 +3513,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3521,7 +3522,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3530,7 +3531,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3539,7 +3540,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3548,7 +3549,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3557,7 +3558,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3566,7 +3567,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3575,7 +3576,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3584,7 +3585,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3593,7 +3594,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3602,7 +3603,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3611,7 +3612,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3620,7 +3621,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3629,7 +3630,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3638,7 +3639,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3647,7 +3648,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3656,7 +3657,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3665,7 +3666,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3674,7 +3675,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3683,7 +3684,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3692,7 +3693,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3701,7 +3702,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3710,7 +3711,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3719,7 +3720,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3728,7 +3729,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3737,7 +3738,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3746,7 +3747,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3755,7 +3756,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3764,7 +3765,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3773,7 +3774,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3782,7 +3783,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3791,7 +3792,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3800,7 +3801,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3809,7 +3810,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3818,7 +3819,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3827,7 +3828,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3836,7 +3837,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3845,7 +3846,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3854,7 +3855,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3863,7 +3864,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3872,7 +3873,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3881,7 +3882,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3890,7 +3891,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3899,7 +3900,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3908,7 +3909,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3917,7 +3918,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3926,7 +3927,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3935,7 +3936,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3944,7 +3945,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3953,7 +3954,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3962,7 +3963,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3971,7 +3972,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3980,7 +3981,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3989,7 +3990,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3998,7 +3999,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4007,7 +4008,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4016,7 +4017,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4025,7 +4026,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4034,7 +4035,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4043,7 +4044,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4052,7 +4053,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4061,7 +4062,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4070,7 +4071,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4079,7 +4080,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4088,7 +4089,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4097,7 +4098,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4106,7 +4107,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4115,7 +4116,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4124,7 +4125,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4133,7 +4134,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4142,7 +4143,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4151,7 +4152,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4160,7 +4161,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4169,7 +4170,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4178,7 +4179,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4187,7 +4188,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4196,7 +4197,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4205,7 +4206,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4214,7 +4215,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4223,7 +4224,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4232,7 +4233,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4241,7 +4242,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4250,7 +4251,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4259,7 +4260,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4268,7 +4269,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4277,7 +4278,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4286,7 +4287,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4295,7 +4296,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4304,7 +4305,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4313,7 +4314,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4322,7 +4323,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4331,7 +4332,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4340,7 +4341,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4349,7 +4350,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4358,7 +4359,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4367,7 +4368,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4376,7 +4377,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4385,7 +4386,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4394,7 +4395,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4403,7 +4404,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4412,7 +4413,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
